--- a/Data_Result/혈당예측_결과정리_엑셀_다변량_SG필터_0_1.xlsx
+++ b/Data_Result/혈당예측_결과정리_엑셀_다변량_SG필터_0_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="8295"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="8295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +672,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
@@ -745,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +790,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1091,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1370,94 +1380,100 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
-        <v>10.0893</v>
-      </c>
-      <c r="C10" s="2">
-        <v>16.220800000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>28.461300000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8.9018999999999995</v>
-      </c>
-      <c r="F10" s="3">
-        <v>17.404499999999999</v>
-      </c>
-      <c r="G10" s="3">
-        <v>26.639600000000002</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9.6895000000000007</v>
-      </c>
-      <c r="I10" s="2">
-        <v>14.9026</v>
-      </c>
-      <c r="J10" s="2">
-        <v>25.671700000000001</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9.5612999999999992</v>
-      </c>
-      <c r="L10" s="3">
-        <v>16.0808</v>
-      </c>
-      <c r="M10" s="3">
-        <v>30.285699999999999</v>
-      </c>
-      <c r="N10" s="2">
-        <v>9.5607000000000006</v>
-      </c>
-      <c r="O10" s="2">
-        <v>18.434899999999999</v>
-      </c>
-      <c r="P10" s="2">
-        <v>25.631699999999999</v>
+      <c r="B10" s="12">
+        <v>9.1059619999999999</v>
+      </c>
+      <c r="C10" s="12">
+        <v>16.552327999999999</v>
+      </c>
+      <c r="D10" s="12">
+        <v>29.121780000000001</v>
+      </c>
+      <c r="E10" s="12">
+        <v>11.433154999999999</v>
+      </c>
+      <c r="F10" s="12">
+        <v>15.559836000000001</v>
+      </c>
+      <c r="G10" s="12">
+        <v>30.636666999999999</v>
+      </c>
+      <c r="H10" s="12">
+        <v>10.660121999999999</v>
+      </c>
+      <c r="I10" s="12">
+        <v>16.586977000000001</v>
+      </c>
+      <c r="J10" s="12">
+        <v>35.338638000000003</v>
+      </c>
+      <c r="K10" s="12">
+        <v>8.6025480000000005</v>
+      </c>
+      <c r="L10" s="12">
+        <v>15.750738999999999</v>
+      </c>
+      <c r="M10" s="12">
+        <v>27.493517000000001</v>
+      </c>
+      <c r="N10" s="12">
+        <v>7.4266199999999998</v>
+      </c>
+      <c r="O10" s="12">
+        <v>17.966846</v>
+      </c>
+      <c r="P10" s="12">
+        <v>29.189806000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2">
-        <v>15.376493</v>
-      </c>
-      <c r="C11" s="2">
-        <v>24.780716000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <v>35.021725000000004</v>
-      </c>
-      <c r="E11" s="3">
-        <v>17.446783</v>
-      </c>
-      <c r="F11" s="3">
-        <v>28.570864</v>
-      </c>
-      <c r="G11" s="3">
-        <v>33.755760000000002</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3">
-        <v>16.804541</v>
-      </c>
-      <c r="L11" s="3">
-        <v>24.976140999999998</v>
-      </c>
-      <c r="M11" s="3">
-        <v>64.927818000000002</v>
-      </c>
-      <c r="N11" s="2">
-        <v>15.907522999999999</v>
-      </c>
-      <c r="O11" s="2">
-        <v>24.582173999999998</v>
-      </c>
-      <c r="P11" s="2">
-        <v>34.145561000000001</v>
+      <c r="B11" s="12">
+        <v>16.163219000000002</v>
+      </c>
+      <c r="C11" s="12">
+        <v>24.619848000000001</v>
+      </c>
+      <c r="D11" s="12">
+        <v>35.000225</v>
+      </c>
+      <c r="E11" s="12">
+        <v>16.724084999999999</v>
+      </c>
+      <c r="F11" s="12">
+        <v>27.508558000000001</v>
+      </c>
+      <c r="G11" s="13">
+        <v>104.901459</v>
+      </c>
+      <c r="H11" s="13">
+        <v>43.459381</v>
+      </c>
+      <c r="I11" s="12">
+        <v>33.702564000000002</v>
+      </c>
+      <c r="J11" s="12">
+        <v>38.094211999999999</v>
+      </c>
+      <c r="K11" s="12">
+        <v>22.753806999999998</v>
+      </c>
+      <c r="L11" s="12">
+        <v>29.075240999999998</v>
+      </c>
+      <c r="M11" s="13">
+        <v>80.763312999999997</v>
+      </c>
+      <c r="N11" s="12">
+        <v>16.33708</v>
+      </c>
+      <c r="O11" s="12">
+        <v>24.481020000000001</v>
+      </c>
+      <c r="P11" s="12">
+        <v>34.802329999999998</v>
       </c>
       <c r="Q11" t="s">
         <v>38</v>
@@ -1467,50 +1483,50 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2">
-        <v>10.239642</v>
-      </c>
-      <c r="C12" s="2">
-        <v>19.522331000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>28.388676</v>
-      </c>
-      <c r="E12" s="3">
-        <v>13.940403</v>
-      </c>
-      <c r="F12" s="3">
-        <v>21.867260000000002</v>
-      </c>
-      <c r="G12" s="3">
-        <v>29.696563999999999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>9.7317839999999993</v>
-      </c>
-      <c r="I12" s="2">
-        <v>20.431360000000002</v>
-      </c>
-      <c r="J12" s="2">
-        <v>32.543613000000001</v>
-      </c>
-      <c r="K12" s="3">
-        <v>11.070471</v>
-      </c>
-      <c r="L12" s="3">
-        <v>22.799482000000001</v>
-      </c>
-      <c r="M12" s="3">
-        <v>28.053474000000001</v>
-      </c>
-      <c r="N12" s="2">
-        <v>9.3776240000000008</v>
-      </c>
-      <c r="O12" s="2">
-        <v>19.270395000000001</v>
-      </c>
-      <c r="P12" s="2">
-        <v>29.428602000000001</v>
+      <c r="B12" s="12">
+        <v>10.433788</v>
+      </c>
+      <c r="C12" s="12">
+        <v>20.433153000000001</v>
+      </c>
+      <c r="D12" s="12">
+        <v>28.268287999999998</v>
+      </c>
+      <c r="E12" s="12">
+        <v>14.901324000000001</v>
+      </c>
+      <c r="F12" s="12">
+        <v>19.302842999999999</v>
+      </c>
+      <c r="G12" s="12">
+        <v>27.892106999999999</v>
+      </c>
+      <c r="H12" s="12">
+        <v>14.608575999999999</v>
+      </c>
+      <c r="I12" s="12">
+        <v>26.232561</v>
+      </c>
+      <c r="J12" s="12">
+        <v>29.180036999999999</v>
+      </c>
+      <c r="K12" s="12">
+        <v>11.178934</v>
+      </c>
+      <c r="L12" s="12">
+        <v>20.251898000000001</v>
+      </c>
+      <c r="M12" s="12">
+        <v>30.754795000000001</v>
+      </c>
+      <c r="N12" s="12">
+        <v>11.656492</v>
+      </c>
+      <c r="O12" s="12">
+        <v>19.817017</v>
+      </c>
+      <c r="P12" s="12">
+        <v>29.385124000000001</v>
       </c>
       <c r="Q12" t="s">
         <v>40</v>
@@ -1520,50 +1536,50 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2">
-        <v>9.3979330000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>17.175681999999998</v>
-      </c>
-      <c r="D13" s="2">
-        <v>29.382479</v>
-      </c>
-      <c r="E13" s="3">
-        <v>9.2003380000000003</v>
-      </c>
-      <c r="F13" s="3">
-        <v>18.934158</v>
-      </c>
-      <c r="G13" s="3">
-        <v>38.264991999999999</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10.267704</v>
-      </c>
-      <c r="I13" s="2">
-        <v>21.574635000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <v>38.010379999999998</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10.220929999999999</v>
-      </c>
-      <c r="L13" s="3">
-        <v>18.444497999999999</v>
-      </c>
-      <c r="M13" s="3">
-        <v>35.378345000000003</v>
-      </c>
-      <c r="N13" s="2">
-        <v>10.691554999999999</v>
-      </c>
-      <c r="O13" s="2">
-        <v>17.90456</v>
-      </c>
-      <c r="P13" s="2">
-        <v>37.113838000000001</v>
+      <c r="B13" s="12">
+        <v>9.5296299999999992</v>
+      </c>
+      <c r="C13" s="12">
+        <v>16.989035000000001</v>
+      </c>
+      <c r="D13" s="12">
+        <v>31.463584999999998</v>
+      </c>
+      <c r="E13" s="12">
+        <v>11.700457999999999</v>
+      </c>
+      <c r="F13" s="12">
+        <v>22.840952000000001</v>
+      </c>
+      <c r="G13" s="12">
+        <v>40.388720999999997</v>
+      </c>
+      <c r="H13" s="12">
+        <v>9.3826009999999993</v>
+      </c>
+      <c r="I13" s="12">
+        <v>19.086041999999999</v>
+      </c>
+      <c r="J13" s="12">
+        <v>34.802826000000003</v>
+      </c>
+      <c r="K13" s="12">
+        <v>10.165875</v>
+      </c>
+      <c r="L13" s="12">
+        <v>19.857481</v>
+      </c>
+      <c r="M13" s="12">
+        <v>38.315651000000003</v>
+      </c>
+      <c r="N13" s="12">
+        <v>9.2665769999999998</v>
+      </c>
+      <c r="O13" s="12">
+        <v>18.52704</v>
+      </c>
+      <c r="P13" s="12">
+        <v>38.442238000000003</v>
       </c>
       <c r="Q13" t="s">
         <v>40</v>
@@ -3566,63 +3582,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>11.434244523809522</v>
+        <v>11.437321452380949</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>19.493246238095239</v>
+        <v>19.514551833333336</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>31.223398499999998</v>
+        <v>31.285296071428569</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>11.896822595238095</v>
+        <v>12.022289214285713</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>20.326795499999996</v>
+        <v>20.289543285714281</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>32.900386023809517</v>
+        <v>34.697101214285716</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>11.903778225</v>
+        <v>12.794459048780485</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>19.823244649999996</v>
+        <v>20.28364231707317</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>32.326347224999992</v>
+        <v>32.542534365853655</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>11.853445571428571</v>
+        <v>11.973538952380951</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>20.148309142857144</v>
+        <v>20.211033857142858</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>32.465559714285703</v>
+        <v>32.910367785714278</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>11.458423238095236</v>
+        <v>11.438170071428569</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>19.655345785714285</v>
+        <v>19.669628976190477</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>32.060766642857146</v>
+        <v>32.191714190476191</v>
       </c>
     </row>
   </sheetData>
@@ -3636,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3919,200 +3935,200 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
-        <v>12.1386</v>
-      </c>
-      <c r="C10" s="2">
-        <v>16.415800000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>27.069099999999999</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12.479699999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>16.3505</v>
-      </c>
-      <c r="G10" s="3">
-        <v>27.8172</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9.6296999999999997</v>
-      </c>
-      <c r="I10" s="2">
-        <v>15.452199999999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>25.6739</v>
-      </c>
-      <c r="K10" s="3">
-        <v>12.9247</v>
-      </c>
-      <c r="L10" s="3">
-        <v>17.238700000000001</v>
-      </c>
-      <c r="M10" s="3">
-        <v>23.065999999999999</v>
-      </c>
-      <c r="N10" s="2">
-        <v>11.527699999999999</v>
-      </c>
-      <c r="O10" s="2">
-        <v>17.7498</v>
-      </c>
-      <c r="P10" s="2">
-        <v>25.6602</v>
+      <c r="B10" s="12">
+        <v>8.8105849999999997</v>
+      </c>
+      <c r="C10" s="12">
+        <v>16.378992</v>
+      </c>
+      <c r="D10" s="12">
+        <v>27.150722999999999</v>
+      </c>
+      <c r="E10" s="12">
+        <v>9.7382139999999993</v>
+      </c>
+      <c r="F10" s="12">
+        <v>16.677771</v>
+      </c>
+      <c r="G10" s="12">
+        <v>22.450627999999998</v>
+      </c>
+      <c r="H10" s="12">
+        <v>5.6186999999999996</v>
+      </c>
+      <c r="I10" s="12">
+        <v>14.080239000000001</v>
+      </c>
+      <c r="J10" s="12">
+        <v>27.482268999999999</v>
+      </c>
+      <c r="K10" s="12">
+        <v>6.7945409999999997</v>
+      </c>
+      <c r="L10" s="12">
+        <v>15.142709</v>
+      </c>
+      <c r="M10" s="12">
+        <v>25.867827999999999</v>
+      </c>
+      <c r="N10" s="12">
+        <v>5.878355</v>
+      </c>
+      <c r="O10" s="12">
+        <v>16.982531000000002</v>
+      </c>
+      <c r="P10" s="12">
+        <v>27.345555999999998</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2">
-        <v>19.483270999999998</v>
-      </c>
-      <c r="C11" s="2">
-        <v>28.519393999999998</v>
-      </c>
-      <c r="D11" s="2">
-        <v>40.323948000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>19.456776000000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>28.762547000000001</v>
-      </c>
-      <c r="G11" s="3">
-        <v>38.358311</v>
-      </c>
-      <c r="H11" s="2">
-        <v>21.085882000000002</v>
-      </c>
-      <c r="I11" s="2">
-        <v>28.787496999999998</v>
-      </c>
-      <c r="J11" s="2">
-        <v>38.536346000000002</v>
-      </c>
-      <c r="K11" s="3">
-        <v>19.855425</v>
-      </c>
-      <c r="L11" s="3">
-        <v>27.075232</v>
-      </c>
-      <c r="M11" s="3">
-        <v>36.273006000000002</v>
-      </c>
-      <c r="N11" s="2">
-        <v>20.025486000000001</v>
-      </c>
-      <c r="O11" s="2">
-        <v>29.021494000000001</v>
-      </c>
-      <c r="P11" s="2">
-        <v>39.528584000000002</v>
+      <c r="B11" s="12">
+        <v>14.338346</v>
+      </c>
+      <c r="C11" s="12">
+        <v>26.552617999999999</v>
+      </c>
+      <c r="D11" s="12">
+        <v>38.188499</v>
+      </c>
+      <c r="E11" s="12">
+        <v>16.167746999999999</v>
+      </c>
+      <c r="F11" s="12">
+        <v>28.352671000000001</v>
+      </c>
+      <c r="G11" s="12">
+        <v>36.172348</v>
+      </c>
+      <c r="H11" s="12">
+        <v>13.905355</v>
+      </c>
+      <c r="I11" s="12">
+        <v>27.996241000000001</v>
+      </c>
+      <c r="J11" s="12">
+        <v>37.818176000000001</v>
+      </c>
+      <c r="K11" s="12">
+        <v>21.772120000000001</v>
+      </c>
+      <c r="L11" s="12">
+        <v>28.756689000000001</v>
+      </c>
+      <c r="M11" s="12">
+        <v>34.850723000000002</v>
+      </c>
+      <c r="N11" s="12">
+        <v>13.701102000000001</v>
+      </c>
+      <c r="O11" s="12">
+        <v>26.519924</v>
+      </c>
+      <c r="P11" s="12">
+        <v>38.249854999999997</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2">
-        <v>15.856517</v>
-      </c>
-      <c r="C12" s="2">
-        <v>26.734016</v>
-      </c>
-      <c r="D12" s="2">
-        <v>42.383839000000002</v>
-      </c>
-      <c r="E12" s="3">
-        <v>19.415877999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <v>26.377652999999999</v>
-      </c>
-      <c r="G12" s="3">
-        <v>38.252110000000002</v>
-      </c>
-      <c r="H12" s="2">
-        <v>13.967516</v>
-      </c>
-      <c r="I12" s="2">
-        <v>25.018045000000001</v>
-      </c>
-      <c r="J12" s="2">
-        <v>38.452342999999999</v>
-      </c>
-      <c r="K12" s="3">
-        <v>15.127197000000001</v>
-      </c>
-      <c r="L12" s="3">
-        <v>26.199014999999999</v>
-      </c>
-      <c r="M12" s="3">
-        <v>39.327198000000003</v>
-      </c>
-      <c r="N12" s="2">
-        <v>14.713447</v>
-      </c>
-      <c r="O12" s="2">
-        <v>26.155494999999998</v>
-      </c>
-      <c r="P12" s="2">
-        <v>42.737876999999997</v>
+      <c r="B12" s="12">
+        <v>10.493983999999999</v>
+      </c>
+      <c r="C12" s="12">
+        <v>24.607894999999999</v>
+      </c>
+      <c r="D12" s="12">
+        <v>40.437111000000002</v>
+      </c>
+      <c r="E12" s="12">
+        <v>8.8380170000000007</v>
+      </c>
+      <c r="F12" s="12">
+        <v>21.75798</v>
+      </c>
+      <c r="G12" s="12">
+        <v>37.244114000000003</v>
+      </c>
+      <c r="H12" s="12">
+        <v>6.8860650000000003</v>
+      </c>
+      <c r="I12" s="12">
+        <v>19.399141</v>
+      </c>
+      <c r="J12" s="12">
+        <v>35.293509999999998</v>
+      </c>
+      <c r="K12" s="12">
+        <v>11.860374</v>
+      </c>
+      <c r="L12" s="12">
+        <v>22.721032999999998</v>
+      </c>
+      <c r="M12" s="12">
+        <v>37.846713999999999</v>
+      </c>
+      <c r="N12" s="12">
+        <v>8.2849740000000001</v>
+      </c>
+      <c r="O12" s="12">
+        <v>24.000093</v>
+      </c>
+      <c r="P12" s="12">
+        <v>39.163471000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2">
-        <v>11.081341</v>
-      </c>
-      <c r="C13" s="2">
-        <v>19.613104</v>
-      </c>
-      <c r="D13" s="2">
-        <v>32.402904999999997</v>
-      </c>
-      <c r="E13" s="3">
-        <v>9.4579269999999998</v>
-      </c>
-      <c r="F13" s="3">
-        <v>16.394656999999999</v>
-      </c>
-      <c r="G13" s="3">
-        <v>26.779591</v>
-      </c>
-      <c r="H13" s="2">
-        <v>8.4273550000000004</v>
-      </c>
-      <c r="I13" s="2">
-        <v>17.099717999999999</v>
-      </c>
-      <c r="J13" s="2">
-        <v>26.938051000000002</v>
-      </c>
-      <c r="K13" s="3">
-        <v>9.9647500000000004</v>
-      </c>
-      <c r="L13" s="3">
-        <v>16.227077000000001</v>
-      </c>
-      <c r="M13" s="3">
-        <v>28.623429999999999</v>
-      </c>
-      <c r="N13" s="2">
-        <v>9.2390310000000007</v>
-      </c>
-      <c r="O13" s="2">
-        <v>17.099716000000001</v>
-      </c>
-      <c r="P13" s="2">
-        <v>28.940584000000001</v>
+      <c r="B13" s="12">
+        <v>9.2207720000000002</v>
+      </c>
+      <c r="C13" s="12">
+        <v>18.886896</v>
+      </c>
+      <c r="D13" s="12">
+        <v>33.017513000000001</v>
+      </c>
+      <c r="E13" s="12">
+        <v>6.2267580000000002</v>
+      </c>
+      <c r="F13" s="12">
+        <v>14.474398000000001</v>
+      </c>
+      <c r="G13" s="12">
+        <v>26.027752</v>
+      </c>
+      <c r="H13" s="12">
+        <v>5.2968950000000001</v>
+      </c>
+      <c r="I13" s="12">
+        <v>13.351713</v>
+      </c>
+      <c r="J13" s="12">
+        <v>26.964825000000001</v>
+      </c>
+      <c r="K13" s="12">
+        <v>6.2917829999999997</v>
+      </c>
+      <c r="L13" s="12">
+        <v>15.099024</v>
+      </c>
+      <c r="M13" s="12">
+        <v>28.495543999999999</v>
+      </c>
+      <c r="N13" s="12">
+        <v>5.513827</v>
+      </c>
+      <c r="O13" s="12">
+        <v>14.790092</v>
+      </c>
+      <c r="P13" s="12">
+        <v>29.112123</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -5987,63 +6003,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>12.670343953488375</v>
+        <v>12.305319720930235</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>20.769255697674417</v>
+        <v>20.656327488372092</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>32.551836139534885</v>
+        <v>32.473093209302327</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>12.467748813953492</v>
+        <v>12.00636404651163</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>19.719477604651164</v>
+        <v>19.565465116279075</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>30.624266023255814</v>
+        <v>30.407699279069764</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>12.036247093023256</v>
+        <v>11.538492720930233</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>19.144441953488368</v>
+        <v>18.876299488372091</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>29.892472139534881</v>
+        <v>29.844987023255811</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>12.406277976744189</v>
+        <v>12.146899976744187</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>19.842246348837214</v>
+        <v>19.725488930232562</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>30.061273279069749</v>
+        <v>30.055951767441844</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>12.156276255813951</v>
+        <v>11.641685418604649</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>19.821923604651161</v>
+        <v>19.642066279069766</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>30.917801790697681</v>
+        <v>30.848121790697675</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Result/혈당예측_결과정리_엑셀_다변량_SG필터_0_1.xlsx
+++ b/Data_Result/혈당예측_결과정리_엑셀_다변량_SG필터_0_1.xlsx
@@ -685,7 +685,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,12 +722,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF414B5E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -752,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,9 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1102,7 +1093,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:P13"/>
+      <selection activeCell="N17" sqref="N17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1235,49 +1226,49 @@
       <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>14.090584</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>20.93881</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>35.539042999999999</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>12.885961</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>18.149635</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>34.076557000000001</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>11.910411</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>18.456146</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>33.862910999999997</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>12.531617000000001</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>19.425889999999999</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>34.08419</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>12.081419</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>21.105352</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>35.026713999999998</v>
       </c>
       <c r="Q5" t="s">
@@ -1380,49 +1371,49 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>9.1059619999999999</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>16.552327999999999</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>29.121780000000001</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>11.433154999999999</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>15.559836000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>30.636666999999999</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>10.660121999999999</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>16.586977000000001</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>35.338638000000003</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>8.6025480000000005</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>15.750738999999999</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>27.493517000000001</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>7.4266199999999998</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>17.966846</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>29.189806000000001</v>
       </c>
     </row>
@@ -1430,49 +1421,49 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>16.163219000000002</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>24.619848000000001</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>35.000225</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>16.724084999999999</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>27.508558000000001</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>104.901459</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>43.459381</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>33.702564000000002</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>38.094211999999999</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>22.753806999999998</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>29.075240999999998</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>80.763312999999997</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>16.33708</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>24.481020000000001</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <v>34.802329999999998</v>
       </c>
       <c r="Q11" t="s">
@@ -1483,49 +1474,49 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>10.433788</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>20.433153000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>28.268287999999998</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>14.901324000000001</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>19.302842999999999</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>27.892106999999999</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>14.608575999999999</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>26.232561</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>29.180036999999999</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>11.178934</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>20.251898000000001</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>30.754795000000001</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>11.656492</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>19.817017</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>29.385124000000001</v>
       </c>
       <c r="Q12" t="s">
@@ -1536,49 +1527,49 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>9.5296299999999992</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>16.989035000000001</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>31.463584999999998</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>11.700457999999999</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>22.840952000000001</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>40.388720999999997</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>9.3826009999999993</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>19.086041999999999</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>34.802826000000003</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>10.165875</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>19.857481</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>38.315651000000003</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>9.2665769999999998</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>18.52704</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>38.442238000000003</v>
       </c>
       <c r="Q13" t="s">
@@ -1589,50 +1580,50 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2">
-        <v>16.456289000000002</v>
-      </c>
-      <c r="C14" s="2">
-        <v>26.326965000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>35.418937999999997</v>
-      </c>
-      <c r="E14" s="3">
-        <v>15.992990000000001</v>
-      </c>
-      <c r="F14" s="3">
-        <v>25.933561000000001</v>
-      </c>
-      <c r="G14" s="3">
-        <v>35.917422999999999</v>
-      </c>
-      <c r="H14" s="2">
-        <v>15.32643</v>
-      </c>
-      <c r="I14" s="2">
-        <v>25.604416000000001</v>
-      </c>
-      <c r="J14" s="2">
-        <v>33.626575000000003</v>
-      </c>
-      <c r="K14" s="3">
-        <v>16.353784999999998</v>
-      </c>
-      <c r="L14" s="3">
-        <v>24.554528999999999</v>
-      </c>
-      <c r="M14" s="3">
-        <v>35.073456</v>
-      </c>
-      <c r="N14" s="2">
-        <v>15.927473000000001</v>
-      </c>
-      <c r="O14" s="2">
-        <v>24.734089000000001</v>
-      </c>
-      <c r="P14" s="2">
-        <v>34.493178999999998</v>
+      <c r="B14" s="11">
+        <v>20.399681000000001</v>
+      </c>
+      <c r="C14" s="11">
+        <v>27.579649</v>
+      </c>
+      <c r="D14" s="11">
+        <v>37.044063999999999</v>
+      </c>
+      <c r="E14" s="11">
+        <v>17.414345000000001</v>
+      </c>
+      <c r="F14" s="11">
+        <v>29.867816999999999</v>
+      </c>
+      <c r="G14" s="11">
+        <v>37.022083000000002</v>
+      </c>
+      <c r="H14" s="11">
+        <v>19.070879000000001</v>
+      </c>
+      <c r="I14" s="11">
+        <v>31.588017000000001</v>
+      </c>
+      <c r="J14" s="11">
+        <v>39.537785</v>
+      </c>
+      <c r="K14" s="11">
+        <v>17.920507000000001</v>
+      </c>
+      <c r="L14" s="11">
+        <v>31.074763999999998</v>
+      </c>
+      <c r="M14" s="11">
+        <v>37.516804</v>
+      </c>
+      <c r="N14" s="11">
+        <v>17.888446999999999</v>
+      </c>
+      <c r="O14" s="11">
+        <v>27.770664</v>
+      </c>
+      <c r="P14" s="11">
+        <v>36.275069999999999</v>
       </c>
       <c r="Q14" t="s">
         <v>40</v>
@@ -1642,44 +1633,50 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2">
-        <v>9.4209320000000005</v>
-      </c>
-      <c r="C15" s="2">
-        <v>16.897320000000001</v>
-      </c>
-      <c r="D15" s="2">
-        <v>26.046595</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11.120205</v>
-      </c>
-      <c r="F15" s="3">
-        <v>18.975633999999999</v>
-      </c>
-      <c r="G15" s="3">
-        <v>30.209541000000002</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3">
-        <v>11.034656999999999</v>
-      </c>
-      <c r="L15" s="3">
-        <v>16.312608999999998</v>
-      </c>
-      <c r="M15" s="3">
-        <v>30.191998000000002</v>
+      <c r="B15" s="11">
+        <v>9.2268270000000001</v>
+      </c>
+      <c r="C15" s="11">
+        <v>15.574384999999999</v>
+      </c>
+      <c r="D15" s="11">
+        <v>26.803554999999999</v>
+      </c>
+      <c r="E15" s="11">
+        <v>9.7813850000000002</v>
+      </c>
+      <c r="F15" s="11">
+        <v>19.672747000000001</v>
+      </c>
+      <c r="G15" s="11">
+        <v>32.298687000000001</v>
+      </c>
+      <c r="H15" s="12">
+        <v>44.306877</v>
+      </c>
+      <c r="I15" s="11">
+        <v>18.588583</v>
+      </c>
+      <c r="J15" s="11">
+        <v>28.124222</v>
+      </c>
+      <c r="K15" s="11">
+        <v>9.7322699999999998</v>
+      </c>
+      <c r="L15" s="11">
+        <v>21.170071</v>
+      </c>
+      <c r="M15" s="11">
+        <v>28.309732</v>
       </c>
       <c r="N15" s="11">
-        <v>10.824441999999999</v>
+        <v>9.7800460000000005</v>
       </c>
       <c r="O15" s="11">
-        <v>19.308167000000001</v>
+        <v>18.802073</v>
       </c>
       <c r="P15" s="11">
-        <v>30.603382</v>
+        <v>32.446041000000001</v>
       </c>
       <c r="Q15" t="s">
         <v>38</v>
@@ -1689,50 +1686,50 @@
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2">
-        <v>8.9720849999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>14.353351</v>
-      </c>
-      <c r="D16" s="2">
-        <v>24.534863000000001</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10.058377999999999</v>
-      </c>
-      <c r="F16" s="3">
-        <v>14.746233999999999</v>
-      </c>
-      <c r="G16" s="3">
-        <v>23.749369000000002</v>
-      </c>
-      <c r="H16" s="2">
-        <v>8.9682899999999997</v>
-      </c>
-      <c r="I16" s="2">
-        <v>15.549201</v>
-      </c>
-      <c r="J16" s="2">
-        <v>23.669630000000002</v>
-      </c>
-      <c r="K16" s="3">
-        <v>10.254025</v>
-      </c>
-      <c r="L16" s="3">
-        <v>15.361072999999999</v>
-      </c>
-      <c r="M16" s="3">
-        <v>22.609705000000002</v>
-      </c>
-      <c r="N16" s="2">
-        <v>8.5999079999999992</v>
-      </c>
-      <c r="O16" s="2">
-        <v>14.191122</v>
-      </c>
-      <c r="P16" s="2">
-        <v>24.014451999999999</v>
+      <c r="B16" s="11">
+        <v>9.5581440000000004</v>
+      </c>
+      <c r="C16" s="11">
+        <v>15.162829</v>
+      </c>
+      <c r="D16" s="11">
+        <v>24.433112999999999</v>
+      </c>
+      <c r="E16" s="11">
+        <v>10.318115000000001</v>
+      </c>
+      <c r="F16" s="11">
+        <v>13.589342</v>
+      </c>
+      <c r="G16" s="11">
+        <v>22.902163999999999</v>
+      </c>
+      <c r="H16" s="11">
+        <v>12.13836</v>
+      </c>
+      <c r="I16" s="11">
+        <v>15.510789000000001</v>
+      </c>
+      <c r="J16" s="11">
+        <v>26.297318000000001</v>
+      </c>
+      <c r="K16" s="11">
+        <v>9.2138220000000004</v>
+      </c>
+      <c r="L16" s="11">
+        <v>13.351589000000001</v>
+      </c>
+      <c r="M16" s="11">
+        <v>23.802019000000001</v>
+      </c>
+      <c r="N16" s="11">
+        <v>10.121375</v>
+      </c>
+      <c r="O16" s="11">
+        <v>15.294472000000001</v>
+      </c>
+      <c r="P16" s="11">
+        <v>22.472632999999998</v>
       </c>
       <c r="Q16" t="s">
         <v>65</v>
@@ -1742,50 +1739,50 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2">
-        <v>17.571289</v>
-      </c>
-      <c r="C17" s="2">
-        <v>29.389987999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>43.931541000000003</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20.850304000000001</v>
-      </c>
-      <c r="F17" s="3">
-        <v>30.979927</v>
-      </c>
-      <c r="G17" s="3">
-        <v>48.467243000000003</v>
-      </c>
-      <c r="H17" s="2">
-        <v>29.930105000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>30.283297999999998</v>
-      </c>
-      <c r="J17" s="2">
-        <v>49.385460000000002</v>
-      </c>
-      <c r="K17" s="3">
-        <v>19.804523</v>
-      </c>
-      <c r="L17" s="3">
-        <v>30.866795</v>
-      </c>
-      <c r="M17" s="3">
-        <v>47.058239</v>
-      </c>
-      <c r="N17" s="2">
-        <v>17.702686</v>
-      </c>
-      <c r="O17" s="2">
-        <v>27.706669000000002</v>
-      </c>
-      <c r="P17" s="2">
-        <v>43.930534000000002</v>
+      <c r="B17" s="11">
+        <v>24.866064000000001</v>
+      </c>
+      <c r="C17" s="11">
+        <v>32.904944999999998</v>
+      </c>
+      <c r="D17" s="11">
+        <v>45.370967999999998</v>
+      </c>
+      <c r="E17" s="11">
+        <v>21.253762999999999</v>
+      </c>
+      <c r="F17" s="11">
+        <v>31.445179</v>
+      </c>
+      <c r="G17" s="11">
+        <v>48.629489999999997</v>
+      </c>
+      <c r="H17" s="11">
+        <v>27.080238000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>33.645190999999997</v>
+      </c>
+      <c r="J17" s="11">
+        <v>48.719974999999998</v>
+      </c>
+      <c r="K17" s="11">
+        <v>21.515962999999999</v>
+      </c>
+      <c r="L17" s="11">
+        <v>38.088782999999999</v>
+      </c>
+      <c r="M17" s="11">
+        <v>45.555202000000001</v>
+      </c>
+      <c r="N17" s="11">
+        <v>20.799633</v>
+      </c>
+      <c r="O17" s="11">
+        <v>33.708022999999997</v>
+      </c>
+      <c r="P17" s="11">
+        <v>44.207661000000002</v>
       </c>
       <c r="Q17" t="s">
         <v>39</v>
@@ -3582,63 +3579,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>11.437321452380949</v>
+        <v>11.714229095238093</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>19.514551833333336</v>
+        <v>19.615841928571427</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>31.285296071428569</v>
+        <v>31.373861857142856</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>12.022289214285713</v>
+        <v>12.040044714285713</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>20.289543285714281</v>
+        <v>20.383346357142852</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>34.697101214285716</v>
+        <v>34.756835690476187</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>12.794459048780485</v>
+        <v>13.641532142857139</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>20.28364231707317</v>
+        <v>20.464880952380945</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>32.542534365853655</v>
+        <v>32.624798666666656</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>11.973538952380951</v>
+        <v>11.995814476190473</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>20.211033857142858</v>
+        <v>20.606038642857143</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>32.910367785714278</v>
+        <v>32.916328714285704</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>11.438170071428569</v>
+        <v>11.569955595238092</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>19.669628976190477</v>
+        <v>19.899038142857147</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>32.191714190476191</v>
+        <v>32.247901285714292</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3650,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:P13"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3755,49 +3752,49 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>6.2327269999999997</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>13.781862</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>24.937714</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>5.5012449999999999</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>11.982768999999999</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>23.343686999999999</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>5.7852389999999998</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>11.122032000000001</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>23.291861000000001</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>7.565296</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>12.77319</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>23.032119999999999</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>5.5625150000000003</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>13.055123999999999</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>24.082729</v>
       </c>
     </row>
@@ -3935,49 +3932,49 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>8.8105849999999997</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>16.378992</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>27.150722999999999</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>9.7382139999999993</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>16.677771</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>22.450627999999998</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>5.6186999999999996</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>14.080239000000001</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>27.482268999999999</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>6.7945409999999997</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>15.142709</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>25.867827999999999</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>5.878355</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>16.982531000000002</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>27.345555999999998</v>
       </c>
     </row>
@@ -3985,49 +3982,49 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>14.338346</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>26.552617999999999</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>38.188499</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>16.167746999999999</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>28.352671000000001</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>36.172348</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>13.905355</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>27.996241000000001</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>37.818176000000001</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>21.772120000000001</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>28.756689000000001</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>34.850723000000002</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>13.701102000000001</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>26.519924</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <v>38.249854999999997</v>
       </c>
     </row>
@@ -4035,49 +4032,49 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>10.493983999999999</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>24.607894999999999</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>40.437111000000002</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>8.8380170000000007</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>21.75798</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>37.244114000000003</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>6.8860650000000003</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>19.399141</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>35.293509999999998</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>11.860374</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>22.721032999999998</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>37.846713999999999</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>8.2849740000000001</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>24.000093</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>39.163471000000001</v>
       </c>
     </row>
@@ -4085,49 +4082,49 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>9.2207720000000002</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>18.886896</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>33.017513000000001</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>6.2267580000000002</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>14.474398000000001</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>26.027752</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>5.2968950000000001</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>13.351713</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>26.964825000000001</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>6.2917829999999997</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>15.099024</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>28.495543999999999</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>5.513827</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>14.790092</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>29.112123</v>
       </c>
     </row>
@@ -4135,200 +4132,200 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2">
-        <v>14.698089</v>
-      </c>
-      <c r="C14" s="2">
-        <v>24.847805000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>38.943553999999999</v>
-      </c>
-      <c r="E14" s="3">
-        <v>14.087259</v>
-      </c>
-      <c r="F14" s="3">
-        <v>25.105097000000001</v>
-      </c>
-      <c r="G14" s="3">
-        <v>36.184978000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>14.101113</v>
-      </c>
-      <c r="I14" s="2">
-        <v>21.558776999999999</v>
-      </c>
-      <c r="J14" s="2">
-        <v>37.508194000000003</v>
-      </c>
-      <c r="K14" s="3">
-        <v>14.272323</v>
-      </c>
-      <c r="L14" s="3">
-        <v>22.982396999999999</v>
-      </c>
-      <c r="M14" s="3">
-        <v>35.529952999999999</v>
-      </c>
-      <c r="N14" s="2">
-        <v>13.542351</v>
-      </c>
-      <c r="O14" s="2">
-        <v>23.470419</v>
-      </c>
-      <c r="P14" s="2">
-        <v>37.145878000000003</v>
+      <c r="B14" s="11">
+        <v>9.6761820000000007</v>
+      </c>
+      <c r="C14" s="11">
+        <v>22.253337999999999</v>
+      </c>
+      <c r="D14" s="11">
+        <v>37.255454999999998</v>
+      </c>
+      <c r="E14" s="11">
+        <v>7.9970330000000001</v>
+      </c>
+      <c r="F14" s="11">
+        <v>18.992092</v>
+      </c>
+      <c r="G14" s="11">
+        <v>33.950927999999998</v>
+      </c>
+      <c r="H14" s="11">
+        <v>6.779941</v>
+      </c>
+      <c r="I14" s="11">
+        <v>17.886341000000002</v>
+      </c>
+      <c r="J14" s="11">
+        <v>34.011429</v>
+      </c>
+      <c r="K14" s="11">
+        <v>7.786772</v>
+      </c>
+      <c r="L14" s="11">
+        <v>20.954832</v>
+      </c>
+      <c r="M14" s="11">
+        <v>33.295189000000001</v>
+      </c>
+      <c r="N14" s="11">
+        <v>7.3556509999999999</v>
+      </c>
+      <c r="O14" s="11">
+        <v>19.325699</v>
+      </c>
+      <c r="P14" s="11">
+        <v>33.949570000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2">
-        <v>15.306673999999999</v>
-      </c>
-      <c r="C15" s="2">
-        <v>23.048203999999998</v>
-      </c>
-      <c r="D15" s="2">
-        <v>30.561368999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>14.921291</v>
-      </c>
-      <c r="F15" s="3">
-        <v>22.749569000000001</v>
-      </c>
-      <c r="G15" s="3">
-        <v>28.83287</v>
-      </c>
-      <c r="H15" s="2">
-        <v>15.276071</v>
-      </c>
-      <c r="I15" s="2">
-        <v>21.736537999999999</v>
-      </c>
-      <c r="J15" s="2">
-        <v>29.199005</v>
-      </c>
-      <c r="K15" s="3">
-        <v>14.794442999999999</v>
-      </c>
-      <c r="L15" s="3">
-        <v>21.002872</v>
-      </c>
-      <c r="M15" s="3">
-        <v>28.874186999999999</v>
-      </c>
-      <c r="N15" s="2">
-        <v>15.281815999999999</v>
-      </c>
-      <c r="O15" s="2">
-        <v>22.371400999999999</v>
-      </c>
-      <c r="P15" s="2">
-        <v>29.505102000000001</v>
+      <c r="B15" s="11">
+        <v>9.3794950000000004</v>
+      </c>
+      <c r="C15" s="11">
+        <v>20.807276000000002</v>
+      </c>
+      <c r="D15" s="11">
+        <v>30.577418999999999</v>
+      </c>
+      <c r="E15" s="11">
+        <v>10.109552000000001</v>
+      </c>
+      <c r="F15" s="11">
+        <v>18.200766000000002</v>
+      </c>
+      <c r="G15" s="11">
+        <v>27.352478000000001</v>
+      </c>
+      <c r="H15" s="11">
+        <v>7.9244050000000001</v>
+      </c>
+      <c r="I15" s="11">
+        <v>17.343057999999999</v>
+      </c>
+      <c r="J15" s="11">
+        <v>27.568085</v>
+      </c>
+      <c r="K15" s="11">
+        <v>11.096788</v>
+      </c>
+      <c r="L15" s="11">
+        <v>19.336969</v>
+      </c>
+      <c r="M15" s="11">
+        <v>27.407412000000001</v>
+      </c>
+      <c r="N15" s="11">
+        <v>8.3294359999999994</v>
+      </c>
+      <c r="O15" s="11">
+        <v>20.858999000000001</v>
+      </c>
+      <c r="P15" s="11">
+        <v>30.139672999999998</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2">
-        <v>10.715441</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16.028948</v>
-      </c>
-      <c r="D16" s="2">
-        <v>23.412230999999998</v>
-      </c>
-      <c r="E16" s="3">
-        <v>11.103213999999999</v>
-      </c>
-      <c r="F16" s="3">
-        <v>15.47847</v>
-      </c>
-      <c r="G16" s="3">
-        <v>22.248384000000001</v>
-      </c>
-      <c r="H16" s="2">
-        <v>10.253401999999999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>15.379925</v>
-      </c>
-      <c r="J16" s="2">
-        <v>22.646125999999999</v>
-      </c>
-      <c r="K16" s="3">
-        <v>11.425359</v>
-      </c>
-      <c r="L16" s="3">
-        <v>15.953156</v>
-      </c>
-      <c r="M16" s="3">
-        <v>21.575621000000002</v>
-      </c>
-      <c r="N16" s="2">
-        <v>10.394859</v>
-      </c>
-      <c r="O16" s="2">
-        <v>15.065172</v>
-      </c>
-      <c r="P16" s="2">
-        <v>22.616287</v>
+      <c r="B16" s="11">
+        <v>6.9001539999999997</v>
+      </c>
+      <c r="C16" s="11">
+        <v>14.250961</v>
+      </c>
+      <c r="D16" s="11">
+        <v>22.249466000000002</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5.6402599999999996</v>
+      </c>
+      <c r="F16" s="11">
+        <v>14.061873</v>
+      </c>
+      <c r="G16" s="11">
+        <v>20.945820000000001</v>
+      </c>
+      <c r="H16" s="11">
+        <v>5.5219319999999996</v>
+      </c>
+      <c r="I16" s="11">
+        <v>12.547789</v>
+      </c>
+      <c r="J16" s="11">
+        <v>24.090693999999999</v>
+      </c>
+      <c r="K16" s="11">
+        <v>7.8758210000000002</v>
+      </c>
+      <c r="L16" s="11">
+        <v>13.484121999999999</v>
+      </c>
+      <c r="M16" s="11">
+        <v>21.132166000000002</v>
+      </c>
+      <c r="N16" s="11">
+        <v>6.0144539999999997</v>
+      </c>
+      <c r="O16" s="11">
+        <v>13.728861</v>
+      </c>
+      <c r="P16" s="11">
+        <v>20.516085</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2">
-        <v>17.051242999999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>28.335640000000001</v>
-      </c>
-      <c r="D17" s="2">
-        <v>42.090007999999997</v>
-      </c>
-      <c r="E17" s="3">
-        <v>18.559950000000001</v>
-      </c>
-      <c r="F17" s="3">
-        <v>26.757244</v>
-      </c>
-      <c r="G17" s="3">
-        <v>40.495097999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>17.077110000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>27.357264000000001</v>
-      </c>
-      <c r="J17" s="2">
-        <v>40.175823000000001</v>
-      </c>
-      <c r="K17" s="3">
-        <v>17.300363999999998</v>
-      </c>
-      <c r="L17" s="3">
-        <v>29.976859999999999</v>
-      </c>
-      <c r="M17" s="3">
-        <v>41.996037000000001</v>
-      </c>
-      <c r="N17" s="2">
-        <v>16.467590000000001</v>
-      </c>
-      <c r="O17" s="2">
-        <v>27.370854999999999</v>
-      </c>
-      <c r="P17" s="2">
-        <v>40.796489999999999</v>
+      <c r="B17" s="11">
+        <v>11.380053999999999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>25.579066999999998</v>
+      </c>
+      <c r="D17" s="11">
+        <v>41.071300999999998</v>
+      </c>
+      <c r="E17" s="11">
+        <v>9.5422320000000003</v>
+      </c>
+      <c r="F17" s="11">
+        <v>26.269003000000001</v>
+      </c>
+      <c r="G17" s="11">
+        <v>40.209609999999998</v>
+      </c>
+      <c r="H17" s="11">
+        <v>9.1064710000000009</v>
+      </c>
+      <c r="I17" s="11">
+        <v>25.184196</v>
+      </c>
+      <c r="J17" s="11">
+        <v>38.357002000000001</v>
+      </c>
+      <c r="K17" s="11">
+        <v>15.368626000000001</v>
+      </c>
+      <c r="L17" s="11">
+        <v>31.454768999999999</v>
+      </c>
+      <c r="M17" s="11">
+        <v>40.240757000000002</v>
+      </c>
+      <c r="N17" s="11">
+        <v>10.207489000000001</v>
+      </c>
+      <c r="O17" s="11">
+        <v>25.341431</v>
+      </c>
+      <c r="P17" s="11">
+        <v>39.75761</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -6003,63 +6000,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>12.305319720930235</v>
+        <v>11.83007409302326</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>20.656327488372092</v>
+        <v>20.438421558139538</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>32.473093209302327</v>
+        <v>32.383476441860466</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>12.00636404651163</v>
+        <v>11.416070162790698</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>19.565465116279075</v>
+        <v>19.273217534883724</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>30.407699279069764</v>
+        <v>30.284385465116276</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>11.538492720930233</v>
+        <v>10.90186604651163</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>18.876299488372091</v>
+        <v>18.572319953488371</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>29.844987023255811</v>
+        <v>29.717034976744184</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>12.146899976744187</v>
+        <v>11.78260969767442</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>19.725488930232562</v>
+        <v>19.616544906976749</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>30.055951767441844</v>
+        <v>29.918736093023234</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>11.641685418604649</v>
+        <v>11.088671790697672</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>19.642066279069766</v>
+        <v>19.432232395348837</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>30.848121790697675</v>
+        <v>30.715544604651164</v>
       </c>
     </row>
   </sheetData>
